--- a/qq@qq.ruJobEvaluation.xlsx
+++ b/qq@qq.ruJobEvaluation.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,128 +569,64 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>T</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" s="4" t="n">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Sdf</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="AA6" s="4" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="28">
     <mergeCell ref="B1:Z2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -719,19 +655,6 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
